--- a/medicine/Psychotrope/Starobrno/Starobrno.xlsx
+++ b/medicine/Psychotrope/Starobrno/Starobrno.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Starobrno (en tchèque : Pivovar Starobrno) est une brasserie située dans la ville de Brno, en République tchèque. Elle a été fondée en 1325 par l'ancien monastère de Brno. 
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les débuts de la brasserie sont en relation avec l’ancien monastère de Brno, construit par la Polonaise Élizabeth Ryksa. Elle est située dans le quartier de la vieille ville de Brno. La brasserie ne dépendait pas du conseil municipal, mais était gérée par un bourgeois nommé Mořic. Cependant, la qualité de la bière était contrôlée par les conseillers municipaux.
 Pendant les croisades contre les hussites durant la première moitié du XVe siècle, les bâtiments de la brasserie et le couvent ont été brûlés à plusieurs reprises, mais ont toujours été restaurés dans leur style d’origine.
@@ -552,7 +566,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2009, Starobrno produit plus d'un million d'hectolitres de bière, pour la première fois de son histoire.
 Starobrno produit six marques différentes de bière dans la production régulière: « Ležák », « Medium » et « Tradiční » (bières blondes pâles à 5 %, 4,5 % et 4 %), « Rezak» (une bière brune aromatisé au caramel) « Černé » (une bière brune) et « Frii » (une bière sans alcool).
